--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/SpawnTable.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/SpawnTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92627B6C-80E0-4246-B6E0-1070841C404B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FAB5AB-21DE-40A8-91F7-58A9388B9B49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17025" windowHeight="7875" xr2:uid="{CF8620D6-7292-4E8C-8303-344569A6BA25}"/>
   </bookViews>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>WavePer5Min</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ScreamPer5Min</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -128,6 +124,10 @@
   </si>
   <si>
     <t>10분당 스폰 웨이브 비율 증감량</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WavePer10Min</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB69FE2B-786B-4124-B9AC-BEE01F67C4A1}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -548,22 +548,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -577,19 +577,19 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -600,22 +600,22 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -626,16 +626,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>-1</v>
       </c>
       <c r="E4">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -652,16 +652,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>-1</v>
       </c>
       <c r="E5">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -678,16 +678,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>-1</v>
       </c>
       <c r="E6">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -704,16 +704,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="F7">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="G7">
         <v>20</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -782,7 +782,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -809,5 +809,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/SpawnTable.xlsx
+++ b/INFEST_Project/Util/ExcelToJsonWizard.v1.0.6/excel_files/SpawnTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worni\Desktop\GitProject\INFEST\INFEST_Project\Util\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FAB5AB-21DE-40A8-91F7-58A9388B9B49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B17974-F59E-4098-92FD-4A9E63649D8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17025" windowHeight="7875" xr2:uid="{CF8620D6-7292-4E8C-8303-344569A6BA25}"/>
   </bookViews>
@@ -525,7 +525,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -797,7 +797,7 @@
         <v>10</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
